--- a/assets/examples/xlsx/RS0001/ASHRAE90-1-2019-bd-Curve-Set-M.RS0001.a205.xlsx
+++ b/assets/examples/xlsx/RS0001/ASHRAE90-1-2019-bd-Curve-Set-M.RS0001.a205.xlsx
@@ -1086,7 +1086,7 @@
       </c>
       <c r="C9" s="5" t="inlineStr">
         <is>
-          <t>2022-12-01T11:35Z</t>
+          <t>2022-12-20T09:13Z</t>
         </is>
       </c>
       <c r="D9" s="4" t="n"/>

--- a/assets/examples/xlsx/RS0001/ASHRAE90-1-2019-bd-Curve-Set-M.RS0001.a205.xlsx
+++ b/assets/examples/xlsx/RS0001/ASHRAE90-1-2019-bd-Curve-Set-M.RS0001.a205.xlsx
@@ -12,6 +12,8 @@
     <sheet name="liquid_components0" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="performance_map_cooling" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="performance_map_standby" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="performance_map_evaporator_liqu" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="performance_map_condenser_liqui" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -349,22 +351,37 @@
     </comment>
     <comment ref="B29" authorId="0" shapeId="0">
       <text>
-        <t>Maximum input power at which the chiller operates reliably and continuously</t>
-      </text>
-    </comment>
-    <comment ref="B30" authorId="0" shapeId="0">
-      <text>
         <t>Cycling degradation coefficient (C~D~) as described in AHRI 550/590 or AHRI 551/591</t>
       </text>
     </comment>
+    <comment ref="A30" authorId="0" shapeId="0">
+      <text>
+        <t>Data group describing cooling performance over a range of conditions</t>
+      </text>
+    </comment>
     <comment ref="A31" authorId="0" shapeId="0">
       <text>
-        <t>Data group describing cooling performance over a range of conditions</t>
+        <t>Data group describing standby performance</t>
       </text>
     </comment>
     <comment ref="A32" authorId="0" shapeId="0">
       <text>
-        <t>Data group describing standby performance</t>
+        <t>Data group describing the liquid pressure differential through the evaporator</t>
+      </text>
+    </comment>
+    <comment ref="A33" authorId="0" shapeId="0">
+      <text>
+        <t>Data group describing the liquid pressure differential through the condenser</t>
+      </text>
+    </comment>
+    <comment ref="A34" authorId="0" shapeId="0">
+      <text>
+        <t>Specifies the range the performance data can be scaled to represent different capacity equipment</t>
+      </text>
+    </comment>
+    <comment ref="B35" authorId="0" shapeId="0">
+      <text>
+        <t>Maximum scaling factor</t>
       </text>
     </comment>
   </commentList>
@@ -469,32 +486,17 @@
     </comment>
     <comment ref="I3" authorId="0" shapeId="0">
       <text>
-        <t>Entering evaporator liquid temperature</t>
+        <t>Heat transferred to another liquid crossing the control volume boundary from the chiller oil cooler.</t>
       </text>
     </comment>
     <comment ref="J3" authorId="0" shapeId="0">
       <text>
-        <t>Leaving condenser liquid temperature</t>
+        <t>Heat transferred to another liquid crossing the control volume boundary from the chiller auxiliaries (motor, motor controller, inverter drive, starter, etc).</t>
       </text>
     </comment>
     <comment ref="K3" authorId="0" shapeId="0">
       <text>
-        <t>Pressure difference across the evaporator</t>
-      </text>
-    </comment>
-    <comment ref="L3" authorId="0" shapeId="0">
-      <text>
-        <t>Pressure difference across the condenser</t>
-      </text>
-    </comment>
-    <comment ref="M3" authorId="0" shapeId="0">
-      <text>
-        <t>Heat transferred to another liquid crossing the control volume boundary from the chiller oil cooler.</t>
-      </text>
-    </comment>
-    <comment ref="N3" authorId="0" shapeId="0">
-      <text>
-        <t>Heat transferred to another liquid crossing the control volume boundary from the chiller auxiliaries (motor, motor controller, inverter drive, starter, etc).</t>
+        <t>The operation state at the operating conditions</t>
       </text>
     </comment>
   </commentList>
@@ -525,6 +527,76 @@
     <comment ref="B3" authorId="0" shapeId="0">
       <text>
         <t>Total power consumed in standby operation</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments/comment6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>ASHRAE 205</author>
+  </authors>
+  <commentList>
+    <comment ref="A2" authorId="0" shapeId="0">
+      <text>
+        <t>Data group defining the grid variables for the evaporator liquid pressure differential</t>
+      </text>
+    </comment>
+    <comment ref="C2" authorId="0" shapeId="0">
+      <text>
+        <t>Data group defining the lookup variables for the evaporator liquid pressure differential</t>
+      </text>
+    </comment>
+    <comment ref="A3" authorId="0" shapeId="0">
+      <text>
+        <t>Chilled liquid (evaporator) flow</t>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0" shapeId="0">
+      <text>
+        <t>Leaving evaporator liquid temperature</t>
+      </text>
+    </comment>
+    <comment ref="C3" authorId="0" shapeId="0">
+      <text>
+        <t>Pressure difference across the evaporator</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments/comment7.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>ASHRAE 205</author>
+  </authors>
+  <commentList>
+    <comment ref="A2" authorId="0" shapeId="0">
+      <text>
+        <t>Data group defining the grid variables for the condenser liquid pressure differential</t>
+      </text>
+    </comment>
+    <comment ref="C2" authorId="0" shapeId="0">
+      <text>
+        <t>Data group defining the lookup variables for the condenser liquid pressure differential</t>
+      </text>
+    </comment>
+    <comment ref="A3" authorId="0" shapeId="0">
+      <text>
+        <t>Condenser liquid flow</t>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0" shapeId="0">
+      <text>
+        <t>Entering condenser liquid temperature</t>
+      </text>
+    </comment>
+    <comment ref="C3" authorId="0" shapeId="0">
+      <text>
+        <t>Pressure difference across the condenser</t>
       </text>
     </comment>
   </commentList>
@@ -820,7 +892,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AZ32"/>
+  <dimension ref="A1:AZ35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1029,7 +1101,7 @@
       </c>
       <c r="C6" s="5" t="inlineStr">
         <is>
-          <t>1.0.0</t>
+          <t>2.0.0</t>
         </is>
       </c>
       <c r="D6" s="4" t="n"/>
@@ -1048,7 +1120,7 @@
       </c>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>ASHRAE 90.1-2019 Addendum 'bd' curve set 'M': 37.5 ton, 2.74 COP liquid-cooled, positive displacement compressor chiller</t>
+          <t>ASHRAE 90.1-2019 Addendum 'bd' curve set 'M': 0.0-75.0 ton, 4.51 COP, 7.03 IPLV liquid-cooled, positive displacement compressor chiller</t>
         </is>
       </c>
       <c r="D7" s="4" t="n"/>
@@ -1067,7 +1139,7 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>8a5c95f4-cd8c-459d-bdf4-02077b5790a7</t>
+          <t>745707fc-bfae-4b6b-ac57-c54be90c541a</t>
         </is>
       </c>
       <c r="D8" s="4" t="n"/>
@@ -1086,7 +1158,7 @@
       </c>
       <c r="C9" s="5" t="inlineStr">
         <is>
-          <t>2022-12-20T09:13Z</t>
+          <t>2024-02-22T13:52Z</t>
         </is>
       </c>
       <c r="D9" s="4" t="n"/>
@@ -1104,7 +1176,7 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10" s="4" t="n"/>
       <c r="E10" s="6" t="inlineStr">
@@ -1409,34 +1481,36 @@
       <c r="A29" s="4" t="n"/>
       <c r="B29" s="4" t="inlineStr">
         <is>
-          <t>maximum_power</t>
+          <t>cycling_degradation_coefficient</t>
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>57921.034620258</v>
+        <v>0</v>
       </c>
       <c r="D29" s="4" t="inlineStr">
         <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="E29" s="6" t="n"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E29" s="6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="30">
-      <c r="A30" s="4" t="n"/>
-      <c r="B30" s="4" t="inlineStr">
-        <is>
-          <t>cycling_degradation_coefficient</t>
-        </is>
-      </c>
-      <c r="C30" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D30" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="A30" s="4" t="inlineStr">
+        <is>
+          <t>performance.performance_map_cooling</t>
+        </is>
+      </c>
+      <c r="B30" s="4" t="n"/>
+      <c r="C30" s="5" t="inlineStr">
+        <is>
+          <t>$performance_map_cooling</t>
+        </is>
+      </c>
+      <c r="D30" s="4" t="n"/>
       <c r="E30" s="6" t="inlineStr">
         <is>
           <t>✓</t>
@@ -1446,13 +1520,13 @@
     <row r="31">
       <c r="A31" s="4" t="inlineStr">
         <is>
-          <t>performance.performance_map_cooling</t>
+          <t>performance.performance_map_standby</t>
         </is>
       </c>
       <c r="B31" s="4" t="n"/>
       <c r="C31" s="5" t="inlineStr">
         <is>
-          <t>$performance_map_cooling</t>
+          <t>$performance_map_standby</t>
         </is>
       </c>
       <c r="D31" s="4" t="n"/>
@@ -1465,13 +1539,13 @@
     <row r="32">
       <c r="A32" s="4" t="inlineStr">
         <is>
-          <t>performance.performance_map_standby</t>
+          <t>performance.performance_map_evaporator_liquid_pressure_differential</t>
         </is>
       </c>
       <c r="B32" s="4" t="n"/>
       <c r="C32" s="5" t="inlineStr">
         <is>
-          <t>$performance_map_standby</t>
+          <t>$performance_map_evaporator_liqu</t>
         </is>
       </c>
       <c r="D32" s="4" t="n"/>
@@ -1481,32 +1555,81 @@
         </is>
       </c>
     </row>
+    <row r="33">
+      <c r="A33" s="4" t="inlineStr">
+        <is>
+          <t>performance.performance_map_condenser_liquid_pressure_differential</t>
+        </is>
+      </c>
+      <c r="B33" s="4" t="n"/>
+      <c r="C33" s="5" t="inlineStr">
+        <is>
+          <t>$performance_map_condenser_liqui</t>
+        </is>
+      </c>
+      <c r="D33" s="4" t="n"/>
+      <c r="E33" s="6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="4" t="inlineStr">
+        <is>
+          <t>performance.scaling</t>
+        </is>
+      </c>
+      <c r="B34" s="4" t="n"/>
+      <c r="C34" s="5" t="n"/>
+      <c r="D34" s="4" t="n"/>
+      <c r="E34" s="6" t="n"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="4" t="n"/>
+      <c r="B35" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    maximum</t>
+        </is>
+      </c>
+      <c r="C35" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D35" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E35" s="6" t="n"/>
+    </row>
   </sheetData>
   <dataValidations count="6">
-    <dataValidation sqref="C5" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C5" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"RS0001,RS0002,RS0003,RS0004,RS0005,RS0006,RS0007"</formula1>
     </dataValidation>
-    <dataValidation sqref="C17" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C17" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation sqref="C18" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C18" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"RECIPROCATING,SCREW,CENTRIFUGAL,ROTARY,SCROLL"</formula1>
     </dataValidation>
-    <dataValidation sqref="C22" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C22" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"BY_VOLUME,BY_MASS"</formula1>
     </dataValidation>
-    <dataValidation sqref="C25" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C25" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"BY_VOLUME,BY_MASS"</formula1>
     </dataValidation>
-    <dataValidation sqref="C28" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C28" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"DISCRETE,CONTINUOUS"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="C21" r:id="rId1"/>
     <hyperlink ref="C24" r:id="rId2"/>
-    <hyperlink ref="C31" r:id="rId3"/>
-    <hyperlink ref="C32" r:id="rId4"/>
+    <hyperlink ref="C30" r:id="rId3"/>
+    <hyperlink ref="C31" r:id="rId4"/>
+    <hyperlink ref="C32" r:id="rId5"/>
+    <hyperlink ref="C33" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <legacyDrawing r:id="anysvml"/>
@@ -1667,7 +1790,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation sqref="A4" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="A4" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"WATER,PROPYLENE_GLYCOL,ETHYLENE_GLYCOL,SODIUM_CHLORIDE,CALCIUM_CHLORIDE,ETHANOL,METHANOL"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1830,7 +1953,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation sqref="A4" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="A4" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"WATER,PROPYLENE_GLYCOL,ETHYLENE_GLYCOL,SODIUM_CHLORIDE,CALCIUM_CHLORIDE,ETHANOL,METHANOL"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1985,9 +2108,6 @@
       <c r="I2" s="4" t="n"/>
       <c r="J2" s="4" t="n"/>
       <c r="K2" s="4" t="n"/>
-      <c r="L2" s="4" t="n"/>
-      <c r="M2" s="4" t="n"/>
-      <c r="N2" s="4" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="8" t="inlineStr">
@@ -2032,32 +2152,17 @@
       </c>
       <c r="I3" s="9" t="inlineStr">
         <is>
-          <t>evaporator_liquid_entering_temperature</t>
+          <t>oil_cooler_heat</t>
         </is>
       </c>
       <c r="J3" s="9" t="inlineStr">
         <is>
-          <t>condenser_liquid_leaving_temperature</t>
+          <t>auxiliary_heat</t>
         </is>
       </c>
       <c r="K3" s="9" t="inlineStr">
         <is>
-          <t>evaporator_liquid_differential_pressure</t>
-        </is>
-      </c>
-      <c r="L3" s="9" t="inlineStr">
-        <is>
-          <t>condenser_liquid_differential_pressure</t>
-        </is>
-      </c>
-      <c r="M3" s="9" t="inlineStr">
-        <is>
-          <t>oil_cooler_heat</t>
-        </is>
-      </c>
-      <c r="N3" s="9" t="inlineStr">
-        <is>
-          <t>auxiliary_heat</t>
+          <t>operation_state</t>
         </is>
       </c>
     </row>
@@ -2104,32 +2209,17 @@
       </c>
       <c r="I4" s="4" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>W</t>
         </is>
       </c>
       <c r="J4" s="4" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>W</t>
         </is>
       </c>
       <c r="K4" s="4" t="inlineStr">
         <is>
-          <t>Pa</t>
-        </is>
-      </c>
-      <c r="L4" s="4" t="inlineStr">
-        <is>
-          <t>Pa</t>
-        </is>
-      </c>
-      <c r="M4" s="4" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="N4" s="4" t="inlineStr">
-        <is>
-          <t>W</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -2141,7 +2231,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.00836785928394876</v>
+        <v>0.007492431208921202</v>
       </c>
       <c r="D5" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2150,31 +2240,24 @@
         <v>1</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>7369.251573158819</v>
+        <v>4483.452027858038</v>
       </c>
       <c r="G5" s="5" t="n">
         <v>33280.13899088275</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>40649.39056404157</v>
+        <v>37763.59101874079</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>278.438588091669</v>
+        <v>0</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>287.0875370441712</v>
-      </c>
-      <c r="K5" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L5" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M5" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K5" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -2185,7 +2268,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.00836785928394876</v>
+        <v>0.007492431208921202</v>
       </c>
       <c r="D6" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2194,31 +2277,24 @@
         <v>2</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>14025.54306138897</v>
+        <v>8533.139200924303</v>
       </c>
       <c r="G6" s="5" t="n">
         <v>66560.2779817655</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>80585.82104315447</v>
+        <v>75093.41718268979</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>279.8382872944492</v>
+        <v>0</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>288.2269549953913</v>
-      </c>
-      <c r="K6" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L6" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M6" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K6" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -2229,7 +2305,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.00836785928394876</v>
+        <v>0.007492431208921202</v>
       </c>
       <c r="D7" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2238,31 +2314,24 @@
         <v>3</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>23980.43851116019</v>
+        <v>14589.69674252821</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>99840.41697264824</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>123820.8554838084</v>
+        <v>114430.1137151764</v>
       </c>
       <c r="I7" s="5" t="n">
-        <v>281.2379864972293</v>
+        <v>0</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>289.4604847268246</v>
-      </c>
-      <c r="K7" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L7" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M7" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K7" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -2273,7 +2342,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.00836785928394876</v>
+        <v>0.007492431208921202</v>
       </c>
       <c r="D8" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2282,31 +2351,24 @@
         <v>4</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>37233.93792247245</v>
+        <v>22653.12465266975</v>
       </c>
       <c r="G8" s="5" t="n">
         <v>133120.555963531</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>170354.4938860034</v>
+        <v>155773.6806162007</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>282.6376857000095</v>
+        <v>0</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>290.7881262384709</v>
-      </c>
-      <c r="K8" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L8" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M8" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K8" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -2317,7 +2379,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.00836785928394876</v>
+        <v>0.007492431208921202</v>
       </c>
       <c r="D9" s="5" t="n">
         <v>295.0018518518519</v>
@@ -2326,31 +2388,24 @@
         <v>1</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>8207.726242379513</v>
+        <v>4993.579945015535</v>
       </c>
       <c r="G9" s="5" t="n">
         <v>31748.97449823527</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>39956.70074061479</v>
+        <v>36742.55444325081</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>278.3741902320245</v>
+        <v>0</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>296.1459267506389</v>
-      </c>
-      <c r="K9" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L9" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K9" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -2361,7 +2416,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.00836785928394876</v>
+        <v>0.007492431208921202</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>295.0018518518519</v>
@@ -2370,31 +2425,24 @@
         <v>2</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>15621.37168282899</v>
+        <v>9504.041197942466</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>63497.94899647055</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>79119.32067929953</v>
+        <v>73001.99019441301</v>
       </c>
       <c r="I10" s="5" t="n">
-        <v>279.7094915751602</v>
+        <v>0</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>297.2672648394226</v>
-      </c>
-      <c r="K10" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L10" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M10" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K10" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -2405,7 +2453,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.00836785928394876</v>
+        <v>0.007492431208921202</v>
       </c>
       <c r="D11" s="5" t="n">
         <v>295.0018518518519</v>
@@ -2414,31 +2462,24 @@
         <v>3</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>26708.93679199624</v>
+        <v>16249.71486360558</v>
       </c>
       <c r="G11" s="5" t="n">
         <v>95246.92349470583</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>121955.8602867021</v>
+        <v>111496.6383583114</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>281.0447929182959</v>
+        <v>0</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>298.4937977815159</v>
-      </c>
-      <c r="K11" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L11" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M11" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K11" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -2449,7 +2490,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.00836785928394876</v>
+        <v>0.007492431208921202</v>
       </c>
       <c r="D12" s="5" t="n">
         <v>295.0018518518519</v>
@@ -2458,31 +2499,24 @@
         <v>4</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>41470.42156988125</v>
+        <v>25230.60094200488</v>
       </c>
       <c r="G12" s="5" t="n">
         <v>126995.8979929411</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>168466.3195628223</v>
+        <v>152226.498934946</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>282.3800942614315</v>
+        <v>0</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>299.8255255769186</v>
-      </c>
-      <c r="K12" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L12" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M12" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K12" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="13">
@@ -2493,7 +2527,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.00836785928394876</v>
+        <v>0.007492431208921202</v>
       </c>
       <c r="D13" s="5" t="n">
         <v>304.075925925926</v>
@@ -2502,31 +2536,24 @@
         <v>1</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>9404.286465874078</v>
+        <v>5721.567082816748</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>29262.2172752723</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>38666.50374114638</v>
+        <v>34983.78435808905</v>
       </c>
       <c r="I13" s="5" t="n">
-        <v>278.2696019638252</v>
+        <v>0</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>305.1866278124299</v>
-      </c>
-      <c r="K13" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L13" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M13" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K13" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -2537,7 +2564,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.00836785928394876</v>
+        <v>0.007492431208921202</v>
       </c>
       <c r="D14" s="5" t="n">
         <v>304.075925925926</v>
@@ -2546,31 +2573,24 @@
         <v>2</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>17898.72736455048</v>
+        <v>10889.58420024108</v>
       </c>
       <c r="G14" s="5" t="n">
         <v>58524.4345505446</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>76423.16191509509</v>
+        <v>69414.01875078568</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>279.5003150387616</v>
+        <v>0</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>306.2711942305015</v>
-      </c>
-      <c r="K14" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L14" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M14" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K14" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -2581,7 +2601,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.00836785928394876</v>
+        <v>0.007492431208921202</v>
       </c>
       <c r="D15" s="5" t="n">
         <v>304.075925925926</v>
@@ -2590,31 +2610,24 @@
         <v>3</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>30602.68890230883</v>
+        <v>18618.67331503682</v>
       </c>
       <c r="G15" s="5" t="n">
         <v>87786.65182581691</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>118389.3407281257</v>
+        <v>106405.3251408537</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>280.7310281136979</v>
+        <v>0</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>307.4766798438127</v>
-      </c>
-      <c r="K15" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L15" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M15" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K15" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -2625,7 +2638,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.00836785928394876</v>
+        <v>0.007492431208921202</v>
       </c>
       <c r="D16" s="5" t="n">
         <v>304.075925925926</v>
@@ -2634,31 +2647,24 @@
         <v>4</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>47516.17107914914</v>
+        <v>28908.83442720396</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>117048.8691010892</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>164565.0401802383</v>
+        <v>145957.7035282932</v>
       </c>
       <c r="I16" s="5" t="n">
-        <v>281.9617411886342</v>
+        <v>0</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>308.8030846523634</v>
-      </c>
-      <c r="K16" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L16" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M16" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K16" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -2669,7 +2675,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.00836785928394876</v>
+        <v>0.007492431208921202</v>
       </c>
       <c r="D17" s="5" t="n">
         <v>313.15</v>
@@ -2678,31 +2684,24 @@
         <v>1</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>10586.45984309359</v>
+        <v>6440.801264572692</v>
       </c>
       <c r="G17" s="5" t="n">
         <v>25819.86732199384</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>36406.32716508743</v>
+        <v>32260.66858656653</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>278.1248232870711</v>
+        <v>0</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>314.1991573866595</v>
-      </c>
-      <c r="K17" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L17" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M17" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K17" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="18">
@@ -2713,7 +2712,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.00836785928394876</v>
+        <v>0.007492431208921202</v>
       </c>
       <c r="D18" s="5" t="n">
         <v>313.15</v>
@@ -2722,31 +2721,24 @@
         <v>2</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>20148.70125180544</v>
+        <v>12258.46812112435</v>
       </c>
       <c r="G18" s="5" t="n">
         <v>51639.73464398769</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>71788.43589579313</v>
+        <v>63898.20276511204</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>279.2107576852533</v>
+        <v>0</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>315.2187988506852</v>
-      </c>
-      <c r="K18" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L18" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M18" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K18" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="19">
@@ -2757,7 +2749,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C19" s="5" t="n">
-        <v>0.00836785928394876</v>
+        <v>0.007492431208921202</v>
       </c>
       <c r="D19" s="5" t="n">
         <v>313.15</v>
@@ -2766,31 +2758,24 @@
         <v>3</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>34449.62446971426</v>
+        <v>20959.14858576094</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>77459.60196598154</v>
       </c>
       <c r="H19" s="5" t="n">
-        <v>111909.2264356958</v>
+        <v>98418.75055174247</v>
       </c>
       <c r="I19" s="5" t="n">
-        <v>280.2966920834355</v>
+        <v>0</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>316.3749996276183</v>
-      </c>
-      <c r="K19" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L19" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M19" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K19" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="20">
@@ -2801,7 +2786,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.00836785928394876</v>
+        <v>0.007492431208921202</v>
       </c>
       <c r="D20" s="5" t="n">
         <v>313.15</v>
@@ -2810,31 +2795,24 @@
         <v>4</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>53489.22949682004</v>
+        <v>32542.84265848245</v>
       </c>
       <c r="G20" s="5" t="n">
         <v>103279.4692879754</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>156768.6987847954</v>
+        <v>135822.3119464578</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>281.3826264816176</v>
+        <v>0</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>317.6677597174588</v>
-      </c>
-      <c r="K20" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L20" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M20" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K20" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="21">
@@ -2845,7 +2823,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.00836785928394876</v>
+        <v>0.007492431208921202</v>
       </c>
       <c r="D21" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2854,31 +2832,24 @@
         <v>1</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>7486.38011114753</v>
+        <v>4554.713020368899</v>
       </c>
       <c r="G21" s="5" t="n">
         <v>37457.25915017287</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>44943.63926132039</v>
+        <v>42011.97217054177</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>282.5065967574019</v>
+        <v>0</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>287.2100553562482</v>
-      </c>
-      <c r="K21" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L21" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M21" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K21" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="22">
@@ -2889,7 +2860,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C22" s="5" t="n">
-        <v>0.00836785928394876</v>
+        <v>0.007492431208921202</v>
       </c>
       <c r="D22" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2898,31 +2869,24 @@
         <v>2</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>14248.46818980524</v>
+        <v>8668.766830017443</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>74914.51830034574</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>89162.98649015097</v>
+        <v>83583.28513036318</v>
       </c>
       <c r="I22" s="5" t="n">
-        <v>284.085415737026</v>
+        <v>0</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>288.471668310118</v>
-      </c>
-      <c r="K22" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L22" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M22" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K22" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="23">
@@ -2933,7 +2897,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.00836785928394876</v>
+        <v>0.007492431208921202</v>
       </c>
       <c r="D23" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2942,31 +2906,24 @@
         <v>3</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>24361.58898149708</v>
+        <v>14821.58865613518</v>
       </c>
       <c r="G23" s="5" t="n">
         <v>112371.7774505186</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>136733.3664320157</v>
+        <v>127193.3661066538</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>285.6642347166501</v>
+        <v>0</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>289.8288888779519</v>
-      </c>
-      <c r="K23" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L23" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M23" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K23" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="24">
@@ -2977,7 +2934,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.00836785928394876</v>
+        <v>0.007492431208921202</v>
       </c>
       <c r="D24" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2986,31 +2943,24 @@
         <v>4</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>37825.74248622305</v>
+        <v>23013.17849872211</v>
       </c>
       <c r="G24" s="5" t="n">
         <v>149829.0366006915</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>187654.7790869145</v>
+        <v>172842.2150994136</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>287.2430536962742</v>
+        <v>0</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>291.2817170597501</v>
-      </c>
-      <c r="K24" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L24" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M24" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K24" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="25">
@@ -3021,7 +2971,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C25" s="5" t="n">
-        <v>0.00836785928394876</v>
+        <v>0.007492431208921202</v>
       </c>
       <c r="D25" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3030,31 +2980,24 @@
         <v>1</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>8371.601911483125</v>
+        <v>5093.281888105021</v>
       </c>
       <c r="G25" s="5" t="n">
         <v>35948.20049584844</v>
       </c>
       <c r="H25" s="5" t="n">
-        <v>44319.80240733156</v>
+        <v>41041.48238395346</v>
       </c>
       <c r="I25" s="5" t="n">
-        <v>282.4429901161562</v>
+        <v>0</v>
       </c>
       <c r="J25" s="5" t="n">
-        <v>296.2708548604483</v>
-      </c>
-      <c r="K25" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L25" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M25" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K25" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="26">
@@ -3065,7 +3008,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.00836785928394876</v>
+        <v>0.007492431208921202</v>
       </c>
       <c r="D26" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3074,31 +3017,24 @@
         <v>2</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>15933.26838372306</v>
+        <v>9693.799124133922</v>
       </c>
       <c r="G26" s="5" t="n">
         <v>71896.40099169688</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>87829.66937541994</v>
+        <v>81590.2001158308</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>283.9582024545346</v>
+        <v>0</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>297.5166670953197</v>
-      </c>
-      <c r="K26" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L26" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M26" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K26" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="27">
@@ -3109,7 +3045,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.00836785928394876</v>
+        <v>0.007492431208921202</v>
       </c>
       <c r="D27" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3118,31 +3054,24 @@
         <v>3</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>27242.20809741999</v>
+        <v>16574.15708028998</v>
       </c>
       <c r="G27" s="5" t="n">
         <v>107844.6014875453</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>135086.8095849653</v>
+        <v>124418.7585678353</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>285.4734147929129</v>
+        <v>0</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>298.8697745065941</v>
-      </c>
-      <c r="K27" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L27" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M27" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K27" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="28">
@@ -3153,7 +3082,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C28" s="5" t="n">
-        <v>0.00836785928394876</v>
+        <v>0.007492431208921202</v>
       </c>
       <c r="D28" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3162,31 +3091,24 @@
         <v>4</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>42298.42105257392</v>
+        <v>25734.35575657318</v>
       </c>
       <c r="G28" s="5" t="n">
         <v>143792.8019833938</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>186091.2230359677</v>
+        <v>169527.1577399669</v>
       </c>
       <c r="I28" s="5" t="n">
-        <v>286.9886271312913</v>
+        <v>0</v>
       </c>
       <c r="J28" s="5" t="n">
-        <v>300.3301770942715</v>
-      </c>
-      <c r="K28" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L28" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M28" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K28" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="29">
@@ -3197,7 +3119,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.00836785928394876</v>
+        <v>0.007492431208921202</v>
       </c>
       <c r="D29" s="5" t="n">
         <v>304.075925925926</v>
@@ -3206,31 +3128,24 @@
         <v>1</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>9766.029047089942</v>
+        <v>5941.651238339702</v>
       </c>
       <c r="G29" s="5" t="n">
         <v>33483.54911120851</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>43249.57815829846</v>
+        <v>39425.20034954822</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>282.3391053559652</v>
+        <v>0</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>305.3182774033833</v>
-      </c>
-      <c r="K29" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L29" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M29" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K29" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="30">
@@ -3241,7 +3156,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.00836785928394876</v>
+        <v>0.007492431208921202</v>
       </c>
       <c r="D30" s="5" t="n">
         <v>304.075925925926</v>
@@ -3250,31 +3165,24 @@
         <v>2</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>18587.21466880548</v>
+        <v>11308.4598173607</v>
       </c>
       <c r="G30" s="5" t="n">
         <v>66967.09822241703</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>85554.31289122251</v>
+        <v>78275.55803977772</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>283.7504329341526</v>
+        <v>0</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>306.5334880929886</v>
-      </c>
-      <c r="K30" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L30" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M30" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K30" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="31">
@@ -3285,7 +3193,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C31" s="5" t="n">
-        <v>0.00836785928394876</v>
+        <v>0.007492431208921202</v>
       </c>
       <c r="D31" s="5" t="n">
         <v>304.075925925926</v>
@@ -3294,31 +3202,24 @@
         <v>3</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>31779.84314105291</v>
+        <v>19334.85385337289</v>
       </c>
       <c r="G31" s="5" t="n">
         <v>100450.6473336255</v>
       </c>
       <c r="H31" s="5" t="n">
-        <v>132230.4904746785</v>
+        <v>119785.5011869984</v>
       </c>
       <c r="I31" s="5" t="n">
-        <v>285.16176051234</v>
+        <v>0</v>
       </c>
       <c r="J31" s="5" t="n">
-        <v>307.8742692208559</v>
-      </c>
-      <c r="K31" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L31" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M31" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K31" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="32">
@@ -3329,7 +3230,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C32" s="5" t="n">
-        <v>0.00836785928394876</v>
+        <v>0.007492431208921202</v>
       </c>
       <c r="D32" s="5" t="n">
         <v>304.075925925926</v>
@@ -3338,31 +3239,24 @@
         <v>4</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>49343.91446383221</v>
+        <v>30020.83334637627</v>
       </c>
       <c r="G32" s="5" t="n">
         <v>133934.1964448341</v>
       </c>
       <c r="H32" s="5" t="n">
-        <v>183278.1109086663</v>
+        <v>163955.0297912103</v>
       </c>
       <c r="I32" s="5" t="n">
-        <v>286.5730880905274</v>
+        <v>0</v>
       </c>
       <c r="J32" s="5" t="n">
-        <v>309.340620786985</v>
-      </c>
-      <c r="K32" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L32" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M32" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K32" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="33">
@@ -3373,7 +3267,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C33" s="5" t="n">
-        <v>0.00836785928394876</v>
+        <v>0.007492431208921202</v>
       </c>
       <c r="D33" s="5" t="n">
         <v>313.15</v>
@@ -3382,31 +3276,24 @@
         <v>1</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>11310.57611693571</v>
+        <v>6881.353543746799</v>
       </c>
       <c r="G33" s="5" t="n">
         <v>30063.3049962531</v>
       </c>
       <c r="H33" s="5" t="n">
-        <v>41373.88111318882</v>
+        <v>36944.6585399999</v>
       </c>
       <c r="I33" s="5" t="n">
-        <v>282.1949424768291</v>
+        <v>0</v>
       </c>
       <c r="J33" s="5" t="n">
-        <v>314.3423123359255</v>
-      </c>
-      <c r="K33" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L33" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M33" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K33" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="34">
@@ -3417,7 +3304,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C34" s="5" t="n">
-        <v>0.00836785928394876</v>
+        <v>0.007492431208921202</v>
       </c>
       <c r="D34" s="5" t="n">
         <v>313.15</v>
@@ -3426,31 +3313,24 @@
         <v>2</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>21526.87702439232</v>
+        <v>13096.95014348539</v>
       </c>
       <c r="G34" s="5" t="n">
         <v>60126.60999250621</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>81653.48701689852</v>
+        <v>73223.5601359916</v>
       </c>
       <c r="I34" s="5" t="n">
-        <v>283.4621071758802</v>
+        <v>0</v>
       </c>
       <c r="J34" s="5" t="n">
-        <v>315.5030898533603</v>
-      </c>
-      <c r="K34" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L34" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M34" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K34" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="35">
@@ -3461,7 +3341,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C35" s="5" t="n">
-        <v>0.00836785928394876</v>
+        <v>0.007492431208921202</v>
       </c>
       <c r="D35" s="5" t="n">
         <v>313.15</v>
@@ -3470,31 +3350,24 @@
         <v>3</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>36805.98666028582</v>
+        <v>22392.75914129767</v>
       </c>
       <c r="G35" s="5" t="n">
         <v>90189.91498875931</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>126995.9016490451</v>
+        <v>112582.674130057</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>284.7292718749315</v>
+        <v>0</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>316.8097673719294</v>
-      </c>
-      <c r="K35" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L35" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M35" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K35" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="36">
@@ -3505,7 +3378,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C36" s="5" t="n">
-        <v>0.00836785928394876</v>
+        <v>0.007492431208921202</v>
       </c>
       <c r="D36" s="5" t="n">
         <v>313.15</v>
@@ -3514,31 +3387,24 @@
         <v>4</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>57147.90502461622</v>
+        <v>34768.78053718362</v>
       </c>
       <c r="G36" s="5" t="n">
         <v>120253.2199850124</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>177401.1250096287</v>
+        <v>155022.000522196</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>285.9964365739827</v>
+        <v>0</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>318.2623448916328</v>
-      </c>
-      <c r="K36" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L36" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M36" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K36" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="37">
@@ -3549,7 +3415,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C37" s="5" t="n">
-        <v>0.00836785928394876</v>
+        <v>0.007492431208921202</v>
       </c>
       <c r="D37" s="5" t="n">
         <v>285.9277777777778</v>
@@ -3558,31 +3424,24 @@
         <v>1</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>7585.827063430152</v>
+        <v>4615.216537645987</v>
       </c>
       <c r="G37" s="5" t="n">
         <v>39521.1941332284</v>
       </c>
       <c r="H37" s="5" t="n">
-        <v>47107.02119665855</v>
+        <v>44136.41067087439</v>
       </c>
       <c r="I37" s="5" t="n">
-        <v>286.4855942746023</v>
+        <v>0</v>
       </c>
       <c r="J37" s="5" t="n">
-        <v>287.271778354095</v>
-      </c>
-      <c r="K37" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L37" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M37" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K37" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="38">
@@ -3593,7 +3452,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C38" s="5" t="n">
-        <v>0.00836785928394876</v>
+        <v>0.007492431208921202</v>
       </c>
       <c r="D38" s="5" t="n">
         <v>285.9277777777778</v>
@@ -3602,31 +3461,24 @@
         <v>2</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>14437.74080422433</v>
+        <v>8783.920272468253</v>
       </c>
       <c r="G38" s="5" t="n">
         <v>79042.38826645679</v>
       </c>
       <c r="H38" s="5" t="n">
-        <v>93480.12907068113</v>
+        <v>87826.30853892505</v>
       </c>
       <c r="I38" s="5" t="n">
-        <v>288.1545218825379</v>
+        <v>0</v>
       </c>
       <c r="J38" s="5" t="n">
-        <v>288.5948398027932</v>
-      </c>
-      <c r="K38" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L38" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M38" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K38" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="39">
@@ -3637,7 +3489,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C39" s="5" t="n">
-        <v>0.00836785928394876</v>
+        <v>0.007492431208921202</v>
       </c>
       <c r="D39" s="5" t="n">
         <v>285.9277777777778</v>
@@ -3646,31 +3498,24 @@
         <v>3</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>24685.20142716549</v>
+        <v>15018.47444044695</v>
       </c>
       <c r="G39" s="5" t="n">
         <v>118563.5823996852</v>
       </c>
       <c r="H39" s="5" t="n">
-        <v>143248.7838268507</v>
+        <v>133582.0568401322</v>
       </c>
       <c r="I39" s="5" t="n">
-        <v>289.8234494904736</v>
+        <v>0</v>
       </c>
       <c r="J39" s="5" t="n">
-        <v>290.014778889911</v>
-      </c>
-      <c r="K39" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L39" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M39" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K39" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="40">
@@ -3681,7 +3526,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C40" s="5" t="n">
-        <v>0.00836785928394876</v>
+        <v>0.007492431208921202</v>
       </c>
       <c r="D40" s="5" t="n">
         <v>285.9277777777778</v>
@@ -3690,31 +3535,24 @@
         <v>4</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>38328.2089322536</v>
+        <v>23318.87904158208</v>
       </c>
       <c r="G40" s="5" t="n">
         <v>158084.7765329136</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>196412.9854651672</v>
+        <v>181403.6555744957</v>
       </c>
       <c r="I40" s="5" t="n">
-        <v>291.4923770984092</v>
+        <v>0</v>
       </c>
       <c r="J40" s="5" t="n">
-        <v>291.5315956154486</v>
-      </c>
-      <c r="K40" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L40" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M40" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K40" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="41">
@@ -3725,7 +3563,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C41" s="5" t="n">
-        <v>0.00836785928394876</v>
+        <v>0.007492431208921202</v>
       </c>
       <c r="D41" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3734,31 +3572,24 @@
         <v>1</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>8401.18315877141</v>
+        <v>5111.279116429304</v>
       </c>
       <c r="G41" s="5" t="n">
         <v>38034.241317227</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>46435.42447599841</v>
+        <v>43145.5204336563</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>286.4228022294541</v>
+        <v>0</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>296.331431185801</v>
-      </c>
-      <c r="K41" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L41" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M41" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K41" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="42">
@@ -3769,7 +3600,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C42" s="5" t="n">
-        <v>0.00836785928394876</v>
+        <v>0.007492431208921202</v>
       </c>
       <c r="D42" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3778,31 +3609,24 @@
         <v>2</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>15989.56895285583</v>
+        <v>9728.052385586861</v>
       </c>
       <c r="G42" s="5" t="n">
         <v>76068.48263445401</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>92058.05158730983</v>
+        <v>85796.53502004087</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>288.0289377922417</v>
+        <v>0</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>297.6377378008943</v>
-      </c>
-      <c r="K42" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L42" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M42" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K42" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="43">
@@ -3813,7 +3637,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C43" s="5" t="n">
-        <v>0.00836785928394876</v>
+        <v>0.007492431208921202</v>
       </c>
       <c r="D43" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3822,31 +3646,24 @@
         <v>3</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>27338.46906430893</v>
+        <v>16632.7222443256</v>
       </c>
       <c r="G43" s="5" t="n">
         <v>114102.723951681</v>
       </c>
       <c r="H43" s="5" t="n">
-        <v>141441.1930159899</v>
+        <v>130735.4461960066</v>
       </c>
       <c r="I43" s="5" t="n">
-        <v>289.6350733550291</v>
+        <v>0</v>
       </c>
       <c r="J43" s="5" t="n">
-        <v>299.0517187223565</v>
-      </c>
-      <c r="K43" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L43" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M43" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K43" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="44">
@@ -3857,7 +3674,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C44" s="5" t="n">
-        <v>0.00836785928394876</v>
+        <v>0.007492431208921202</v>
       </c>
       <c r="D44" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3866,31 +3683,24 @@
         <v>4</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>42447.88349313071</v>
+        <v>25825.28869264551</v>
       </c>
       <c r="G44" s="5" t="n">
         <v>152136.965268908</v>
       </c>
       <c r="H44" s="5" t="n">
-        <v>194584.8487620387</v>
+        <v>177962.2539615535</v>
       </c>
       <c r="I44" s="5" t="n">
-        <v>291.2412089178167</v>
+        <v>0</v>
       </c>
       <c r="J44" s="5" t="n">
-        <v>300.5733739501874</v>
-      </c>
-      <c r="K44" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L44" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M44" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K44" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="45">
@@ -3901,7 +3711,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C45" s="5" t="n">
-        <v>0.00836785928394876</v>
+        <v>0.007492431208921202</v>
       </c>
       <c r="D45" s="5" t="n">
         <v>304.075925925926</v>
@@ -3910,31 +3720,24 @@
         <v>1</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>9809.004294722861</v>
+        <v>5967.797375329964</v>
       </c>
       <c r="G45" s="5" t="n">
         <v>35591.69577091013</v>
       </c>
       <c r="H45" s="5" t="n">
-        <v>45400.70006563299</v>
+        <v>41559.49314624009</v>
       </c>
       <c r="I45" s="5" t="n">
-        <v>286.3196567707885</v>
+        <v>0</v>
       </c>
       <c r="J45" s="5" t="n">
-        <v>305.3800687454857</v>
-      </c>
-      <c r="K45" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L45" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M45" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K45" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="46">
@@ -3945,7 +3748,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C46" s="5" t="n">
-        <v>0.00836785928394876</v>
+        <v>0.007492431208921202</v>
       </c>
       <c r="D46" s="5" t="n">
         <v>304.075925925926</v>
@@ -3954,31 +3757,24 @@
         <v>2</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>18669.00739636615</v>
+        <v>11358.22250582442</v>
       </c>
       <c r="G46" s="5" t="n">
         <v>71183.39154182025</v>
       </c>
       <c r="H46" s="5" t="n">
-        <v>89852.39893818639</v>
+        <v>82541.61404764467</v>
       </c>
       <c r="I46" s="5" t="n">
-        <v>287.8226468749102</v>
+        <v>0</v>
       </c>
       <c r="J46" s="5" t="n">
-        <v>306.6569513446102</v>
-      </c>
-      <c r="K46" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L46" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M46" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K46" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="47">
@@ -3989,7 +3785,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C47" s="5" t="n">
-        <v>0.00836785928394876</v>
+        <v>0.007492431208921202</v>
       </c>
       <c r="D47" s="5" t="n">
         <v>304.075925925926</v>
@@ -3998,31 +3794,24 @@
         <v>3</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>31919.68980975896</v>
+        <v>19419.93655467231</v>
       </c>
       <c r="G47" s="5" t="n">
         <v>106775.0873127304</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>138694.7771224894</v>
+        <v>126195.0238674027</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>289.325636979032</v>
+        <v>0</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>308.0599569526118</v>
-      </c>
-      <c r="K47" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L47" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M47" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N47" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K47" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="48">
@@ -4033,7 +3822,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C48" s="5" t="n">
-        <v>0.00836785928394876</v>
+        <v>0.007492431208921202</v>
       </c>
       <c r="D48" s="5" t="n">
         <v>304.075925925926</v>
@@ -4042,31 +3831,24 @@
         <v>4</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>49561.0515349013</v>
+        <v>30152.93952187362</v>
       </c>
       <c r="G48" s="5" t="n">
         <v>142366.7830836405</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>191927.8346185418</v>
+        <v>172519.7226055141</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>290.8286270831538</v>
+        <v>0</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>309.5890855694906</v>
-      </c>
-      <c r="K48" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L48" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M48" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N48" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K48" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="49">
@@ -4077,7 +3859,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C49" s="5" t="n">
-        <v>0.00836785928394876</v>
+        <v>0.007492431208921202</v>
       </c>
       <c r="D49" s="5" t="n">
         <v>313.15</v>
@@ -4086,31 +3868,24 @@
         <v>1</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>11463.5920697689</v>
+        <v>6974.448436384654</v>
       </c>
       <c r="G49" s="5" t="n">
         <v>32193.55749427776</v>
       </c>
       <c r="H49" s="5" t="n">
-        <v>43657.14956404665</v>
+        <v>39168.00593066241</v>
       </c>
       <c r="I49" s="5" t="n">
-        <v>286.1761578986052</v>
+        <v>0</v>
       </c>
       <c r="J49" s="5" t="n">
-        <v>314.408111556761</v>
-      </c>
-      <c r="K49" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L49" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M49" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N49" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K49" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="50">
@@ -4121,7 +3896,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C50" s="5" t="n">
-        <v>0.00836785928394876</v>
+        <v>0.007492431208921202</v>
       </c>
       <c r="D50" s="5" t="n">
         <v>313.15</v>
@@ -4130,31 +3905,24 @@
         <v>2</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>21818.10494818287</v>
+        <v>13274.13318745195</v>
       </c>
       <c r="G50" s="5" t="n">
         <v>64387.11498855551</v>
       </c>
       <c r="H50" s="5" t="n">
-        <v>86205.21993673839</v>
+        <v>77661.24817600746</v>
       </c>
       <c r="I50" s="5" t="n">
-        <v>287.5356491305437</v>
+        <v>0</v>
       </c>
       <c r="J50" s="5" t="n">
-        <v>315.6342616739423</v>
-      </c>
-      <c r="K50" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L50" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M50" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N50" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K50" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="51">
@@ -4165,7 +3933,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C51" s="5" t="n">
-        <v>0.00836785928394876</v>
+        <v>0.007492431208921202</v>
       </c>
       <c r="D51" s="5" t="n">
         <v>313.15</v>
@@ -4174,31 +3942,24 @@
         <v>3</v>
       </c>
       <c r="F51" s="5" t="n">
-        <v>37303.91913167923</v>
+        <v>22695.70121437554</v>
       </c>
       <c r="G51" s="5" t="n">
         <v>96580.67248283327</v>
       </c>
       <c r="H51" s="5" t="n">
-        <v>133884.5916145125</v>
+        <v>119276.3736972088</v>
       </c>
       <c r="I51" s="5" t="n">
-        <v>288.8951403624822</v>
+        <v>0</v>
       </c>
       <c r="J51" s="5" t="n">
-        <v>317.0082856110504</v>
-      </c>
-      <c r="K51" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L51" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M51" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N51" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K51" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="52">
@@ -4209,7 +3970,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C52" s="5" t="n">
-        <v>0.00836785928394876</v>
+        <v>0.007492431208921202</v>
       </c>
       <c r="D52" s="5" t="n">
         <v>313.15</v>
@@ -4218,31 +3979,24 @@
         <v>4</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>57921.034620258</v>
+        <v>35239.15251715545</v>
       </c>
       <c r="G52" s="5" t="n">
         <v>128774.229977111</v>
       </c>
       <c r="H52" s="5" t="n">
-        <v>186695.264597369</v>
+        <v>164013.3824942665</v>
       </c>
       <c r="I52" s="5" t="n">
-        <v>290.2546315944207</v>
+        <v>0</v>
       </c>
       <c r="J52" s="5" t="n">
-        <v>318.5301833680851</v>
-      </c>
-      <c r="K52" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L52" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M52" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N52" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K52" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="53">
@@ -4253,7 +4007,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C53" s="5" t="n">
-        <v>0.00836785928394876</v>
+        <v>0.007492431208921202</v>
       </c>
       <c r="D53" s="5" t="n">
         <v>285.9277777777778</v>
@@ -4262,31 +4016,24 @@
         <v>1</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>7802.297218453223</v>
+        <v>4746.91696147789</v>
       </c>
       <c r="G53" s="5" t="n">
         <v>39471.94394004936</v>
       </c>
       <c r="H53" s="5" t="n">
-        <v>47274.24115850258</v>
+        <v>44218.86090152725</v>
       </c>
       <c r="I53" s="5" t="n">
-        <v>290.3751647407596</v>
+        <v>0</v>
       </c>
       <c r="J53" s="5" t="n">
-        <v>287.2765492718772</v>
-      </c>
-      <c r="K53" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L53" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M53" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N53" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K53" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="54">
@@ -4297,7 +4044,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C54" s="5" t="n">
-        <v>0.00836785928394876</v>
+        <v>0.007492431208921202</v>
       </c>
       <c r="D54" s="5" t="n">
         <v>285.9277777777778</v>
@@ -4306,31 +4053,24 @@
         <v>2</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>14849.73806753397</v>
+        <v>9034.579372285869</v>
       </c>
       <c r="G54" s="5" t="n">
         <v>78943.88788009873</v>
       </c>
       <c r="H54" s="5" t="n">
-        <v>93793.6259476327</v>
+        <v>87978.46725238459</v>
       </c>
       <c r="I54" s="5" t="n">
-        <v>292.0447739259636</v>
+        <v>0</v>
       </c>
       <c r="J54" s="5" t="n">
-        <v>288.6037841166681</v>
-      </c>
-      <c r="K54" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L54" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M54" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N54" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K54" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="55">
@@ -4341,7 +4081,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C55" s="5" t="n">
-        <v>0.00836785928394876</v>
+        <v>0.007492431208921202</v>
       </c>
       <c r="D55" s="5" t="n">
         <v>285.9277777777778</v>
@@ -4350,31 +4090,24 @@
         <v>3</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>25389.62156949575</v>
+        <v>15447.04359489107</v>
       </c>
       <c r="G55" s="5" t="n">
         <v>118415.8318201481</v>
       </c>
       <c r="H55" s="5" t="n">
-        <v>143805.4533896439</v>
+        <v>133862.8754150392</v>
       </c>
       <c r="I55" s="5" t="n">
-        <v>293.7143831111676</v>
+        <v>0</v>
       </c>
       <c r="J55" s="5" t="n">
-        <v>290.0306611128622</v>
-      </c>
-      <c r="K55" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L55" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M55" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N55" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K55" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="56">
@@ -4385,7 +4118,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C56" s="5" t="n">
-        <v>0.00836785928394876</v>
+        <v>0.007492431208921202</v>
       </c>
       <c r="D56" s="5" t="n">
         <v>285.9277777777778</v>
@@ -4394,31 +4127,24 @@
         <v>4</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>39421.94772433858</v>
+        <v>23984.3096292935</v>
       </c>
       <c r="G56" s="5" t="n">
         <v>157887.7757601975</v>
       </c>
       <c r="H56" s="5" t="n">
-        <v>197309.7234845361</v>
+        <v>181872.085389491</v>
       </c>
       <c r="I56" s="5" t="n">
-        <v>295.3839922963716</v>
+        <v>0</v>
       </c>
       <c r="J56" s="5" t="n">
-        <v>291.5571802604595</v>
-      </c>
-      <c r="K56" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L56" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M56" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N56" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K56" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="57">
@@ -4429,7 +4155,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C57" s="5" t="n">
-        <v>0.00836785928394876</v>
+        <v>0.007492431208921202</v>
       </c>
       <c r="D57" s="5" t="n">
         <v>295.0018518518519</v>
@@ -4438,31 +4164,24 @@
         <v>1</v>
       </c>
       <c r="F57" s="5" t="n">
-        <v>8457.903961365486</v>
+        <v>5145.788047884216</v>
       </c>
       <c r="G57" s="5" t="n">
         <v>38007.09696237103</v>
       </c>
       <c r="H57" s="5" t="n">
-        <v>46465.00092373652</v>
+        <v>43152.88501025524</v>
       </c>
       <c r="I57" s="5" t="n">
-        <v>290.3132037192157</v>
+        <v>0</v>
       </c>
       <c r="J57" s="5" t="n">
-        <v>296.3322780442959</v>
-      </c>
-      <c r="K57" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L57" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M57" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N57" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K57" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="58">
@@ -4473,7 +4192,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C58" s="5" t="n">
-        <v>0.00836785928394876</v>
+        <v>0.007492431208921202</v>
       </c>
       <c r="D58" s="5" t="n">
         <v>295.0018518518519</v>
@@ -4482,31 +4201,24 @@
         <v>2</v>
       </c>
       <c r="F58" s="5" t="n">
-        <v>16097.52293588409</v>
+        <v>9793.73157964319</v>
       </c>
       <c r="G58" s="5" t="n">
         <v>76014.19392474205</v>
       </c>
       <c r="H58" s="5" t="n">
-        <v>92111.71686062614</v>
+        <v>85807.92550438525</v>
       </c>
       <c r="I58" s="5" t="n">
-        <v>291.9208518828758</v>
+        <v>0</v>
       </c>
       <c r="J58" s="5" t="n">
-        <v>297.6392743915287</v>
-      </c>
-      <c r="K58" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L58" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M58" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N58" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K58" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="59">
@@ -4517,7 +4229,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C59" s="5" t="n">
-        <v>0.00836785928394876</v>
+        <v>0.007492431208921202</v>
       </c>
       <c r="D59" s="5" t="n">
         <v>295.0018518518519</v>
@@ -4526,31 +4238,24 @@
         <v>3</v>
       </c>
       <c r="F59" s="5" t="n">
-        <v>27523.04543619792</v>
+        <v>16745.0184932221</v>
       </c>
       <c r="G59" s="5" t="n">
         <v>114021.2908871131</v>
       </c>
       <c r="H59" s="5" t="n">
-        <v>141544.336323311</v>
+        <v>130766.3093803352</v>
       </c>
       <c r="I59" s="5" t="n">
-        <v>293.5285000465358</v>
+        <v>0</v>
       </c>
       <c r="J59" s="5" t="n">
-        <v>299.0546720109588</v>
-      </c>
-      <c r="K59" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L59" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M59" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N59" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K59" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="60">
@@ -4561,7 +4266,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C60" s="5" t="n">
-        <v>0.00836785928394876</v>
+        <v>0.007492431208921202</v>
       </c>
       <c r="D60" s="5" t="n">
         <v>295.0018518518519</v>
@@ -4570,31 +4275,24 @@
         <v>4</v>
       </c>
       <c r="F60" s="5" t="n">
-        <v>42734.47146230697</v>
+        <v>25999.64878862094</v>
       </c>
       <c r="G60" s="5" t="n">
         <v>152028.3878494841</v>
       </c>
       <c r="H60" s="5" t="n">
-        <v>194762.8593117911</v>
+        <v>178028.0366381051</v>
       </c>
       <c r="I60" s="5" t="n">
-        <v>295.1361482101959</v>
+        <v>0</v>
       </c>
       <c r="J60" s="5" t="n">
-        <v>300.5784709025863</v>
-      </c>
-      <c r="K60" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L60" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M60" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N60" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K60" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="61">
@@ -4605,7 +4303,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C61" s="5" t="n">
-        <v>0.00836785928394876</v>
+        <v>0.007492431208921202</v>
       </c>
       <c r="D61" s="5" t="n">
         <v>304.075925925926</v>
@@ -4614,31 +4312,24 @@
         <v>1</v>
       </c>
       <c r="F61" s="5" t="n">
-        <v>9721.375374568537</v>
+        <v>5914.483947790604</v>
       </c>
       <c r="G61" s="5" t="n">
         <v>35586.65725437719</v>
       </c>
       <c r="H61" s="5" t="n">
-        <v>45308.03262894573</v>
+        <v>41501.1412021678</v>
       </c>
       <c r="I61" s="5" t="n">
-        <v>290.21082243354</v>
+        <v>0</v>
       </c>
       <c r="J61" s="5" t="n">
-        <v>305.3774068576296</v>
-      </c>
-      <c r="K61" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L61" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M61" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N61" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K61" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="62">
@@ -4649,7 +4340,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C62" s="5" t="n">
-        <v>0.00836785928394876</v>
+        <v>0.007492431208921202</v>
       </c>
       <c r="D62" s="5" t="n">
         <v>304.075925925926</v>
@@ -4658,31 +4349,24 @@
         <v>2</v>
       </c>
       <c r="F62" s="5" t="n">
-        <v>18502.22747565831</v>
+        <v>11256.75361630692</v>
       </c>
       <c r="G62" s="5" t="n">
         <v>71173.31450875438</v>
       </c>
       <c r="H62" s="5" t="n">
-        <v>89675.5419844127</v>
+        <v>82430.0681250613</v>
       </c>
       <c r="I62" s="5" t="n">
-        <v>291.7160893115245</v>
+        <v>0</v>
       </c>
       <c r="J62" s="5" t="n">
-        <v>306.6518710985783</v>
-      </c>
-      <c r="K62" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L62" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M62" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N62" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K62" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="63">
@@ -4693,7 +4377,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C63" s="5" t="n">
-        <v>0.00836785928394876</v>
+        <v>0.007492431208921202</v>
       </c>
       <c r="D63" s="5" t="n">
         <v>304.075925925926</v>
@@ -4702,31 +4386,24 @@
         <v>3</v>
       </c>
       <c r="F63" s="5" t="n">
-        <v>31634.53467416635</v>
+        <v>19246.44819452683</v>
       </c>
       <c r="G63" s="5" t="n">
         <v>106759.9717631316</v>
       </c>
       <c r="H63" s="5" t="n">
-        <v>138394.5064372979</v>
+        <v>126006.4199576584</v>
       </c>
       <c r="I63" s="5" t="n">
-        <v>293.2213561895089</v>
+        <v>0</v>
       </c>
       <c r="J63" s="5" t="n">
-        <v>308.0513316261862</v>
-      </c>
-      <c r="K63" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L63" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M63" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N63" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K63" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="64">
@@ -4737,7 +4414,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C64" s="5" t="n">
-        <v>0.00836785928394876</v>
+        <v>0.007492431208921202</v>
       </c>
       <c r="D64" s="5" t="n">
         <v>304.075925925926</v>
@@ -4746,31 +4423,24 @@
         <v>4</v>
       </c>
       <c r="F64" s="5" t="n">
-        <v>49118.29697009265</v>
+        <v>29883.56768245034</v>
       </c>
       <c r="G64" s="5" t="n">
         <v>142346.6290175088</v>
       </c>
       <c r="H64" s="5" t="n">
-        <v>191464.9259876014</v>
+        <v>172230.1966999591</v>
       </c>
       <c r="I64" s="5" t="n">
-        <v>294.7266230674933</v>
+        <v>0</v>
       </c>
       <c r="J64" s="5" t="n">
-        <v>309.5757884404534</v>
-      </c>
-      <c r="K64" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L64" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M64" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N64" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K64" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="65">
@@ -4781,7 +4451,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C65" s="5" t="n">
-        <v>0.00836785928394876</v>
+        <v>0.007492431208921202</v>
       </c>
       <c r="D65" s="5" t="n">
         <v>313.15</v>
@@ -4790,31 +4460,24 @@
         <v>1</v>
       </c>
       <c r="F65" s="5" t="n">
-        <v>11260.40005606344</v>
+        <v>6850.82643259658</v>
       </c>
       <c r="G65" s="5" t="n">
         <v>32210.62481606787</v>
       </c>
       <c r="H65" s="5" t="n">
-        <v>43471.0248721313</v>
+        <v>39061.45124866445</v>
       </c>
       <c r="I65" s="5" t="n">
-        <v>290.0680208837327</v>
+        <v>0</v>
       </c>
       <c r="J65" s="5" t="n">
-        <v>314.4027478161541</v>
-      </c>
-      <c r="K65" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L65" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M65" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N65" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K65" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="66">
@@ -4825,7 +4488,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C66" s="5" t="n">
-        <v>0.00836785928394876</v>
+        <v>0.007492431208921202</v>
       </c>
       <c r="D66" s="5" t="n">
         <v>313.15</v>
@@ -4834,31 +4497,24 @@
         <v>2</v>
       </c>
       <c r="F66" s="5" t="n">
-        <v>21431.37933437204</v>
+        <v>13038.84935703149</v>
       </c>
       <c r="G66" s="5" t="n">
         <v>64421.24963213573</v>
       </c>
       <c r="H66" s="5" t="n">
-        <v>85852.62896650776</v>
+        <v>77460.09898916722</v>
       </c>
       <c r="I66" s="5" t="n">
-        <v>291.4304862119097</v>
+        <v>0</v>
       </c>
       <c r="J66" s="5" t="n">
-        <v>315.6241007088109</v>
-      </c>
-      <c r="K66" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L66" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M66" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N66" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K66" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="67">
@@ -4869,7 +4525,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C67" s="5" t="n">
-        <v>0.00836785928394876</v>
+        <v>0.007492431208921202</v>
       </c>
       <c r="D67" s="5" t="n">
         <v>313.15</v>
@@ -4878,31 +4534,24 @@
         <v>3</v>
       </c>
       <c r="F67" s="5" t="n">
-        <v>36642.70767183842</v>
+        <v>22293.42021866846</v>
       </c>
       <c r="G67" s="5" t="n">
         <v>96631.8744482036</v>
       </c>
       <c r="H67" s="5" t="n">
-        <v>133274.582120042</v>
+        <v>118925.2946668721</v>
       </c>
       <c r="I67" s="5" t="n">
-        <v>292.7929515400868</v>
+        <v>0</v>
       </c>
       <c r="J67" s="5" t="n">
-        <v>316.9907063599451</v>
-      </c>
-      <c r="K67" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L67" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M67" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N67" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K67" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="68">
@@ -4913,7 +4562,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C68" s="5" t="n">
-        <v>0.00836785928394876</v>
+        <v>0.007492431208921202</v>
       </c>
       <c r="D68" s="5" t="n">
         <v>313.15</v>
@@ -4922,31 +4571,24 @@
         <v>4</v>
       </c>
       <c r="F68" s="5" t="n">
-        <v>56894.38506846256</v>
+        <v>34614.53901750751</v>
       </c>
       <c r="G68" s="5" t="n">
         <v>128842.4992642715</v>
       </c>
       <c r="H68" s="5" t="n">
-        <v>185736.884332734</v>
+        <v>163457.038281779</v>
       </c>
       <c r="I68" s="5" t="n">
-        <v>294.155416868264</v>
+        <v>0</v>
       </c>
       <c r="J68" s="5" t="n">
-        <v>318.5025647695566</v>
-      </c>
-      <c r="K68" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L68" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M68" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N68" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K68" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -5129,4 +4771,450 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <legacyDrawing r:id="anysvml"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AZ8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="13" customWidth="1" style="1" min="1" max="1"/>
+    <col width="13" customWidth="1" style="1" min="2" max="2"/>
+    <col width="13" customWidth="1" style="1" min="3" max="3"/>
+    <col width="13" customWidth="1" style="1" min="4" max="4"/>
+    <col width="13" customWidth="1" style="1" min="5" max="5"/>
+    <col width="13" customWidth="1" style="1" min="6" max="6"/>
+    <col width="13" customWidth="1" style="1" min="7" max="7"/>
+    <col width="13" customWidth="1" style="1" min="8" max="8"/>
+    <col width="13" customWidth="1" style="1" min="9" max="9"/>
+    <col width="13" customWidth="1" style="1" min="10" max="10"/>
+    <col width="13" customWidth="1" style="1" min="11" max="11"/>
+    <col width="13" customWidth="1" style="1" min="12" max="12"/>
+    <col width="13" customWidth="1" style="1" min="13" max="13"/>
+    <col width="13" customWidth="1" style="1" min="14" max="14"/>
+    <col width="13" customWidth="1" style="1" min="15" max="15"/>
+    <col width="13" customWidth="1" style="1" min="16" max="16"/>
+    <col width="13" customWidth="1" style="1" min="17" max="17"/>
+    <col width="13" customWidth="1" style="1" min="18" max="18"/>
+    <col width="13" customWidth="1" style="1" min="19" max="19"/>
+    <col width="13" customWidth="1" style="1" min="20" max="20"/>
+    <col width="13" customWidth="1" style="1" min="21" max="21"/>
+    <col width="13" customWidth="1" style="1" min="22" max="22"/>
+    <col width="13" customWidth="1" style="1" min="23" max="23"/>
+    <col width="13" customWidth="1" style="1" min="24" max="24"/>
+    <col width="13" customWidth="1" style="1" min="25" max="25"/>
+    <col width="13" customWidth="1" style="1" min="26" max="26"/>
+    <col width="13" customWidth="1" style="1" min="27" max="27"/>
+    <col width="13" customWidth="1" style="1" min="28" max="28"/>
+    <col width="13" customWidth="1" style="1" min="29" max="29"/>
+    <col width="13" customWidth="1" style="1" min="30" max="30"/>
+    <col width="13" customWidth="1" style="1" min="31" max="31"/>
+    <col width="13" customWidth="1" style="1" min="32" max="32"/>
+    <col width="13" customWidth="1" style="1" min="33" max="33"/>
+    <col width="13" customWidth="1" style="1" min="34" max="34"/>
+    <col width="13" customWidth="1" style="1" min="35" max="35"/>
+    <col width="13" customWidth="1" style="1" min="36" max="36"/>
+    <col width="13" customWidth="1" style="1" min="37" max="37"/>
+    <col width="13" customWidth="1" style="1" min="38" max="38"/>
+    <col width="13" customWidth="1" style="1" min="39" max="39"/>
+    <col width="13" customWidth="1" style="1" min="40" max="40"/>
+    <col width="13" customWidth="1" style="1" min="41" max="41"/>
+    <col width="13" customWidth="1" style="1" min="42" max="42"/>
+    <col width="13" customWidth="1" style="1" min="43" max="43"/>
+    <col width="13" customWidth="1" style="1" min="44" max="44"/>
+    <col width="13" customWidth="1" style="1" min="45" max="45"/>
+    <col width="13" customWidth="1" style="1" min="46" max="46"/>
+    <col width="13" customWidth="1" style="1" min="47" max="47"/>
+    <col width="13" customWidth="1" style="1" min="48" max="48"/>
+    <col width="13" customWidth="1" style="1" min="49" max="49"/>
+    <col width="13" customWidth="1" style="1" min="50" max="50"/>
+    <col width="13" customWidth="1" style="1" min="51" max="51"/>
+    <col width="13" customWidth="1" style="1" min="52" max="52"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>performance.performance_map_evaporator_liquid_pressure_differential</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="2" t="n"/>
+      <c r="E1" s="2" t="n"/>
+      <c r="F1" s="2" t="n"/>
+      <c r="G1" s="2" t="n"/>
+      <c r="H1" s="2" t="n"/>
+      <c r="I1" s="2" t="n"/>
+      <c r="J1" s="2" t="n"/>
+      <c r="K1" s="2" t="n"/>
+      <c r="L1" s="2" t="n"/>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="2" t="n"/>
+      <c r="O1" s="2" t="n"/>
+      <c r="P1" s="2" t="n"/>
+      <c r="Q1" s="2" t="n"/>
+      <c r="R1" s="2" t="n"/>
+      <c r="S1" s="2" t="n"/>
+      <c r="T1" s="2" t="n"/>
+      <c r="U1" s="2" t="n"/>
+      <c r="V1" s="2" t="n"/>
+      <c r="W1" s="2" t="n"/>
+      <c r="X1" s="2" t="n"/>
+      <c r="Y1" s="2" t="n"/>
+      <c r="Z1" s="2" t="n"/>
+      <c r="AA1" s="2" t="n"/>
+      <c r="AB1" s="2" t="n"/>
+      <c r="AC1" s="2" t="n"/>
+      <c r="AD1" s="2" t="n"/>
+      <c r="AE1" s="2" t="n"/>
+      <c r="AF1" s="2" t="n"/>
+      <c r="AG1" s="2" t="n"/>
+      <c r="AH1" s="2" t="n"/>
+      <c r="AI1" s="2" t="n"/>
+      <c r="AJ1" s="2" t="n"/>
+      <c r="AK1" s="2" t="n"/>
+      <c r="AL1" s="2" t="n"/>
+      <c r="AM1" s="2" t="n"/>
+      <c r="AN1" s="2" t="n"/>
+      <c r="AO1" s="2" t="n"/>
+      <c r="AP1" s="2" t="n"/>
+      <c r="AQ1" s="2" t="n"/>
+      <c r="AR1" s="2" t="n"/>
+      <c r="AS1" s="2" t="n"/>
+      <c r="AT1" s="2" t="n"/>
+      <c r="AU1" s="2" t="n"/>
+      <c r="AV1" s="2" t="n"/>
+      <c r="AW1" s="2" t="n"/>
+      <c r="AX1" s="2" t="n"/>
+      <c r="AY1" s="2" t="n"/>
+      <c r="AZ1" s="2" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="7" t="inlineStr">
+        <is>
+          <t>grid_variables</t>
+        </is>
+      </c>
+      <c r="B2" s="7" t="n"/>
+      <c r="C2" s="4" t="inlineStr">
+        <is>
+          <t>lookup_variables</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="8" t="inlineStr">
+        <is>
+          <t>evaporator_liquid_volumetric_flow_rate</t>
+        </is>
+      </c>
+      <c r="B3" s="8" t="inlineStr">
+        <is>
+          <t>evaporator_liquid_leaving_temperature</t>
+        </is>
+      </c>
+      <c r="C3" s="9" t="inlineStr">
+        <is>
+          <t>evaporator_liquid_differential_pressure</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="7" t="inlineStr">
+        <is>
+          <t>m3/s</t>
+        </is>
+      </c>
+      <c r="B4" s="7" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>Pa</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="5" t="n">
+        <v>0.005650768266874505</v>
+      </c>
+      <c r="B5" s="5" t="n">
+        <v>277.0388888888889</v>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="5" t="n">
+        <v>0.005650768266874505</v>
+      </c>
+      <c r="B6" s="5" t="n">
+        <v>280.9277777777778</v>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="5" t="n">
+        <v>0.005650768266874505</v>
+      </c>
+      <c r="B7" s="5" t="n">
+        <v>284.8166666666667</v>
+      </c>
+      <c r="C7" s="5" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="5" t="n">
+        <v>0.005650768266874505</v>
+      </c>
+      <c r="B8" s="5" t="n">
+        <v>288.7055555555556</v>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <legacyDrawing r:id="anysvml"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AZ8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="13" customWidth="1" style="1" min="1" max="1"/>
+    <col width="13" customWidth="1" style="1" min="2" max="2"/>
+    <col width="13" customWidth="1" style="1" min="3" max="3"/>
+    <col width="13" customWidth="1" style="1" min="4" max="4"/>
+    <col width="13" customWidth="1" style="1" min="5" max="5"/>
+    <col width="13" customWidth="1" style="1" min="6" max="6"/>
+    <col width="13" customWidth="1" style="1" min="7" max="7"/>
+    <col width="13" customWidth="1" style="1" min="8" max="8"/>
+    <col width="13" customWidth="1" style="1" min="9" max="9"/>
+    <col width="13" customWidth="1" style="1" min="10" max="10"/>
+    <col width="13" customWidth="1" style="1" min="11" max="11"/>
+    <col width="13" customWidth="1" style="1" min="12" max="12"/>
+    <col width="13" customWidth="1" style="1" min="13" max="13"/>
+    <col width="13" customWidth="1" style="1" min="14" max="14"/>
+    <col width="13" customWidth="1" style="1" min="15" max="15"/>
+    <col width="13" customWidth="1" style="1" min="16" max="16"/>
+    <col width="13" customWidth="1" style="1" min="17" max="17"/>
+    <col width="13" customWidth="1" style="1" min="18" max="18"/>
+    <col width="13" customWidth="1" style="1" min="19" max="19"/>
+    <col width="13" customWidth="1" style="1" min="20" max="20"/>
+    <col width="13" customWidth="1" style="1" min="21" max="21"/>
+    <col width="13" customWidth="1" style="1" min="22" max="22"/>
+    <col width="13" customWidth="1" style="1" min="23" max="23"/>
+    <col width="13" customWidth="1" style="1" min="24" max="24"/>
+    <col width="13" customWidth="1" style="1" min="25" max="25"/>
+    <col width="13" customWidth="1" style="1" min="26" max="26"/>
+    <col width="13" customWidth="1" style="1" min="27" max="27"/>
+    <col width="13" customWidth="1" style="1" min="28" max="28"/>
+    <col width="13" customWidth="1" style="1" min="29" max="29"/>
+    <col width="13" customWidth="1" style="1" min="30" max="30"/>
+    <col width="13" customWidth="1" style="1" min="31" max="31"/>
+    <col width="13" customWidth="1" style="1" min="32" max="32"/>
+    <col width="13" customWidth="1" style="1" min="33" max="33"/>
+    <col width="13" customWidth="1" style="1" min="34" max="34"/>
+    <col width="13" customWidth="1" style="1" min="35" max="35"/>
+    <col width="13" customWidth="1" style="1" min="36" max="36"/>
+    <col width="13" customWidth="1" style="1" min="37" max="37"/>
+    <col width="13" customWidth="1" style="1" min="38" max="38"/>
+    <col width="13" customWidth="1" style="1" min="39" max="39"/>
+    <col width="13" customWidth="1" style="1" min="40" max="40"/>
+    <col width="13" customWidth="1" style="1" min="41" max="41"/>
+    <col width="13" customWidth="1" style="1" min="42" max="42"/>
+    <col width="13" customWidth="1" style="1" min="43" max="43"/>
+    <col width="13" customWidth="1" style="1" min="44" max="44"/>
+    <col width="13" customWidth="1" style="1" min="45" max="45"/>
+    <col width="13" customWidth="1" style="1" min="46" max="46"/>
+    <col width="13" customWidth="1" style="1" min="47" max="47"/>
+    <col width="13" customWidth="1" style="1" min="48" max="48"/>
+    <col width="13" customWidth="1" style="1" min="49" max="49"/>
+    <col width="13" customWidth="1" style="1" min="50" max="50"/>
+    <col width="13" customWidth="1" style="1" min="51" max="51"/>
+    <col width="13" customWidth="1" style="1" min="52" max="52"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>performance.performance_map_condenser_liquid_pressure_differential</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="2" t="n"/>
+      <c r="E1" s="2" t="n"/>
+      <c r="F1" s="2" t="n"/>
+      <c r="G1" s="2" t="n"/>
+      <c r="H1" s="2" t="n"/>
+      <c r="I1" s="2" t="n"/>
+      <c r="J1" s="2" t="n"/>
+      <c r="K1" s="2" t="n"/>
+      <c r="L1" s="2" t="n"/>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="2" t="n"/>
+      <c r="O1" s="2" t="n"/>
+      <c r="P1" s="2" t="n"/>
+      <c r="Q1" s="2" t="n"/>
+      <c r="R1" s="2" t="n"/>
+      <c r="S1" s="2" t="n"/>
+      <c r="T1" s="2" t="n"/>
+      <c r="U1" s="2" t="n"/>
+      <c r="V1" s="2" t="n"/>
+      <c r="W1" s="2" t="n"/>
+      <c r="X1" s="2" t="n"/>
+      <c r="Y1" s="2" t="n"/>
+      <c r="Z1" s="2" t="n"/>
+      <c r="AA1" s="2" t="n"/>
+      <c r="AB1" s="2" t="n"/>
+      <c r="AC1" s="2" t="n"/>
+      <c r="AD1" s="2" t="n"/>
+      <c r="AE1" s="2" t="n"/>
+      <c r="AF1" s="2" t="n"/>
+      <c r="AG1" s="2" t="n"/>
+      <c r="AH1" s="2" t="n"/>
+      <c r="AI1" s="2" t="n"/>
+      <c r="AJ1" s="2" t="n"/>
+      <c r="AK1" s="2" t="n"/>
+      <c r="AL1" s="2" t="n"/>
+      <c r="AM1" s="2" t="n"/>
+      <c r="AN1" s="2" t="n"/>
+      <c r="AO1" s="2" t="n"/>
+      <c r="AP1" s="2" t="n"/>
+      <c r="AQ1" s="2" t="n"/>
+      <c r="AR1" s="2" t="n"/>
+      <c r="AS1" s="2" t="n"/>
+      <c r="AT1" s="2" t="n"/>
+      <c r="AU1" s="2" t="n"/>
+      <c r="AV1" s="2" t="n"/>
+      <c r="AW1" s="2" t="n"/>
+      <c r="AX1" s="2" t="n"/>
+      <c r="AY1" s="2" t="n"/>
+      <c r="AZ1" s="2" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="7" t="inlineStr">
+        <is>
+          <t>grid_variables</t>
+        </is>
+      </c>
+      <c r="B2" s="7" t="n"/>
+      <c r="C2" s="4" t="inlineStr">
+        <is>
+          <t>lookup_variables</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="8" t="inlineStr">
+        <is>
+          <t>condenser_liquid_volumetric_flow_rate</t>
+        </is>
+      </c>
+      <c r="B3" s="8" t="inlineStr">
+        <is>
+          <t>condenser_liquid_entering_temperature</t>
+        </is>
+      </c>
+      <c r="C3" s="9" t="inlineStr">
+        <is>
+          <t>condenser_liquid_differential_pressure</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="7" t="inlineStr">
+        <is>
+          <t>m3/s</t>
+        </is>
+      </c>
+      <c r="B4" s="7" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>Pa</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="5" t="n">
+        <v>0.007492431208921202</v>
+      </c>
+      <c r="B5" s="5" t="n">
+        <v>285.9277777777778</v>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="5" t="n">
+        <v>0.007492431208921202</v>
+      </c>
+      <c r="B6" s="5" t="n">
+        <v>295.0018518518519</v>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="5" t="n">
+        <v>0.007492431208921202</v>
+      </c>
+      <c r="B7" s="5" t="n">
+        <v>304.075925925926</v>
+      </c>
+      <c r="C7" s="5" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="5" t="n">
+        <v>0.007492431208921202</v>
+      </c>
+      <c r="B8" s="5" t="n">
+        <v>313.15</v>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <legacyDrawing r:id="anysvml"/>
+</worksheet>
 </file>